--- a/biology/Zoologie/Apterodontinae/Apterodontinae.xlsx
+++ b/biology/Zoologie/Apterodontinae/Apterodontinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aptérodontinés
-Les Apterodontinae (aptérodontinés en français) sont une sous-famille éteinte de mammifères carnivores de l'ordre des Creodonta, du clade des Hyaenodonta et de la famille des Hyainailouridae[2],[3]. C'est le groupe frère de la sous-famille des Hyainailourinae.
-Ils ont vécu essentiellement en Afrique, de l'Éocène supérieur (Priabonien) à la fin de l'Oligocène inférieur (Rupélien), soit il y a environ entre 37,8 et 28,1 millions d'années[3],[4]. Une seule espèce d'aptérodontinés a été découverte en Europe, dans l'Oligocène inférieur d’Allemagne : Apterodon gaudryi.
+Les Apterodontinae (aptérodontinés en français) sont une sous-famille éteinte de mammifères carnivores de l'ordre des Creodonta, du clade des Hyaenodonta et de la famille des Hyainailouridae,. C'est le groupe frère de la sous-famille des Hyainailourinae.
+Ils ont vécu essentiellement en Afrique, de l'Éocène supérieur (Priabonien) à la fin de l'Oligocène inférieur (Rupélien), soit il y a environ entre 37,8 et 28,1 millions d'années,. Une seule espèce d'aptérodontinés a été découverte en Europe, dans l'Oligocène inférieur d’Allemagne : Apterodon gaudryi.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Matthew Borths et Nancy Stevens en 2017[3], la sous-famille des aptérodontinés ne contient que deux genres :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Matthew Borths et Nancy Stevens en 2017, la sous-famille des aptérodontinés ne contient que deux genres :
 le genre type Apterodon connu en Afrique et en Europe de l’Éocène supérieur (Priabonien) jusqu'à l'Oligocène inférieur (Rupélien) ;
 le genre monospécifique Quasiapterodon (Q. minutus), découvert en Égypte dans l'Oligocène inférieur (Rupélien).</t>
         </is>
@@ -545,11 +559,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Apterodontinae forment une petite famille de hyainailouridés spécialisée dans les habitats aquatiques, semblables à ceux de la loutre actuelle[5].
-Apterodon est considéré comme un animal semi-aquatique, fouisseur. En effet ses membres antérieurs sont puissants et bien équipés pour creuser, comparables à ceux des blaireaux modernes. Sa queue, son torse et ses membres postérieurs présentent des adaptations similaires à celles d'autres mammifères aquatiques, comme les loutres et les pinnipèdes. Sa denture était adaptée pour se nourrir d'invertébrés à carapace dure, tels que les crustacés et les mollusques. Il a probablement vécu le long des côtes africaines[4].
-L'étude de la denture d'un spécimen d'Apterodon macrognathus et d'autres hyaenodontes par Borths et Stevens en 2017, a montré que les dents déciduales (« de lait ») apparaissaient chez ces animaux beaucoup plus lentement que chez les membres de l'ordre des carnivores[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Apterodontinae forment une petite famille de hyainailouridés spécialisée dans les habitats aquatiques, semblables à ceux de la loutre actuelle.
+Apterodon est considéré comme un animal semi-aquatique, fouisseur. En effet ses membres antérieurs sont puissants et bien équipés pour creuser, comparables à ceux des blaireaux modernes. Sa queue, son torse et ses membres postérieurs présentent des adaptations similaires à celles d'autres mammifères aquatiques, comme les loutres et les pinnipèdes. Sa denture était adaptée pour se nourrir d'invertébrés à carapace dure, tels que les crustacés et les mollusques. Il a probablement vécu le long des côtes africaines.
+L'étude de la denture d'un spécimen d'Apterodon macrognathus et d'autres hyaenodontes par Borths et Stevens en 2017, a montré que les dents déciduales (« de lait ») apparaissaient chez ces animaux beaucoup plus lentement que chez les membres de l'ordre des carnivores.
 </t>
         </is>
       </c>
